--- a/SeguimientosSOAPI/Sharepoint/Formato Información de Carpetas Reportes Equipos SOAPI v1 15022019.xlsx
+++ b/SeguimientosSOAPI/Sharepoint/Formato Información de Carpetas Reportes Equipos SOAPI v1 15022019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\SeguimientosSOAPI\Sharepoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24458D-A2F0-405C-82F0-025DB30367B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F9E93-176F-44E3-9E7D-74782205E66E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
